--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1974.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1974.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.004*"import" + 0.004*"foreign" + 0.004*"exchange" + 0.003*"bank" + 0.003*"may" + 0.002*"currency" + 0.002*"per" + 0.002*"account" + 0.002*"export" + 0.002*"country"</t>
-  </si>
-  <si>
-    <t>0.017*"import" + 0.016*"foreign" + 0.016*"bank" + 0.015*"exchange" + 0.011*"may" + 0.011*"export" + 0.010*"currency" + 0.010*"per" + 0.010*"account" + 0.009*"payment"</t>
-  </si>
-  <si>
-    <t>0.006*"import" + 0.004*"exchange" + 0.004*"bank" + 0.004*"export" + 0.004*"may" + 0.003*"foreign" + 0.003*"per" + 0.003*"account" + 0.003*"payment" + 0.002*"cent"</t>
-  </si>
-  <si>
-    <t>0.001*"foreign" + 0.001*"bank" + 0.001*"exchange" + 0.001*"import" + 0.001*"export" + 0.001*"payment" + 0.001*"may" + 0.001*"account" + 0.001*"cent" + 0.001*"per"</t>
-  </si>
-  <si>
-    <t>0.018*"foreign" + 0.016*"import" + 0.015*"bank" + 0.014*"exchange" + 0.013*"may" + 0.013*"export" + 0.010*"country" + 0.008*"per" + 0.008*"u" + 0.008*"payment"</t>
+    <t>0.048*"may" + 0.047*"account" + 0.045*"currency" + 0.027*"country" + 0.025*"foreign" + 0.023*"dollar" + 0.023*"resident" + 0.020*"nonresident" + 0.017*"franc" + 0.016*"area"</t>
+  </si>
+  <si>
+    <t>0.073*"import" + 0.035*"per" + 0.028*"cent" + 0.027*"export" + 0.025*"license" + 0.020*"good" + 0.017*"u" + 0.015*"monetary" + 0.015*"fund" + 0.013*"certain"</t>
+  </si>
+  <si>
+    <t>0.039*"gold" + 0.030*"export" + 0.020*"th" + 0.020*"january" + 0.018*"ing" + 0.013*"however" + 0.011*"ion" + 0.010*"ly" + 0.009*"ry" + 0.008*"ty"</t>
+  </si>
+  <si>
+    <t>0.065*"bank" + 0.056*"exchange" + 0.034*"rate" + 0.028*"foreign" + 0.018*"central" + 0.016*"control" + 0.014*"market" + 0.012*"value" + 0.012*"require" + 0.012*"approval"</t>
+  </si>
+  <si>
+    <t>0.023*"payment" + 0.023*"foreign" + 0.019*"capital" + 0.015*"abroad" + 0.014*"transfer" + 0.014*"investment" + 0.011*"proceeds" + 0.011*"must" + 0.010*"exchange" + 0.010*"invisibles"</t>
   </si>
 </sst>
 </file>
